--- a/module/room/src/main/assets/RoleTable.xlsx
+++ b/module/room/src/main/assets/RoleTable.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+  <si>
+    <t>标识</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
@@ -122,6 +125,117 @@
   </si>
   <si>
     <t>属性总计</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>faction</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>realm</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>intellect</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>expNextLevel</t>
+  </si>
+  <si>
+    <t>expFactor</t>
+  </si>
+  <si>
+    <t>attackInit</t>
+  </si>
+  <si>
+    <t>defenseInit</t>
+  </si>
+  <si>
+    <t>healthInit</t>
+  </si>
+  <si>
+    <t>speedInit</t>
+  </si>
+  <si>
+    <t>potential</t>
+  </si>
+  <si>
+    <t>basicTotal</t>
+  </si>
+  <si>
+    <t>attackGrowth</t>
+  </si>
+  <si>
+    <t>defenseGrowth</t>
+  </si>
+  <si>
+    <t>healthGrowth</t>
+  </si>
+  <si>
+    <t>potentialGrowth</t>
+  </si>
+  <si>
+    <t>basicGrowthTotal</t>
+  </si>
+  <si>
+    <t>critInit</t>
+  </si>
+  <si>
+    <t>resistInit</t>
+  </si>
+  <si>
+    <t>hitInit</t>
+  </si>
+  <si>
+    <t>dodgeInit</t>
+  </si>
+  <si>
+    <t>extraTotal</t>
+  </si>
+  <si>
+    <t>critGrowth</t>
+  </si>
+  <si>
+    <t>resistGrowth</t>
+  </si>
+  <si>
+    <t>hitGrowth</t>
+  </si>
+  <si>
+    <t>dodgeGrowth</t>
+  </si>
+  <si>
+    <t>extraGrowthTotal</t>
+  </si>
+  <si>
+    <t>attrsTotal</t>
   </si>
   <si>
     <t>林飞</t>
@@ -138,10 +252,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -167,7 +281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +310,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -204,6 +334,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -212,9 +350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +367,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -245,14 +375,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,15 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,14 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -318,187 +432,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,6 +668,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -581,21 +710,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -611,16 +725,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,152 +743,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +896,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,39 +1223,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="21.7232142857143" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="146.571428571429" style="1" customWidth="1"/>
-    <col min="5" max="8" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6428571428571" style="1" customWidth="1"/>
-    <col min="10" max="12" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.2142857142857" style="1" customWidth="1"/>
-    <col min="14" max="16" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7142857142857" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7142857142857" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="1" customWidth="1"/>
-    <col min="21" max="22" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="23" max="24" width="11.7142857142857" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14" style="1" customWidth="1"/>
-    <col min="26" max="29" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14" style="1" customWidth="1"/>
-    <col min="31" max="34" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="35" max="35" width="14" style="1" customWidth="1"/>
-    <col min="36" max="36" width="9.57142857142857" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="6.57142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.07142857142857" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5803571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.57142857142857" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.35714285714286" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28571428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6428571428571" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.57142857142857" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.2142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.2142857142857" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.78571428571429" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.64285714285714" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6428571428571" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.3571428571429" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.3571428571429" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="1" customWidth="1"/>
+    <col min="26" max="26" width="17.3571428571429" style="1" customWidth="1"/>
+    <col min="27" max="30" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7857142857143" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.3571428571429" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.2142857142857" style="1" customWidth="1"/>
+    <col min="35" max="35" width="13" style="1" customWidth="1"/>
+    <col min="36" max="36" width="17.2142857142857" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="56.2410714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1246,120 +1375,238 @@
       <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2"/>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:37">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H3" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I3" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J3" s="4">
         <v>9</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N3" s="4">
         <v>25</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O3" s="1">
         <v>25</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P3" s="4">
         <v>35</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q3" s="4">
         <v>18</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R3" s="4">
         <v>80</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S3" s="4">
         <v>15</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T3" s="4">
         <v>0</v>
       </c>
-      <c r="T2" s="1">
-        <f>O2+P2+Q2+R2+R6</f>
+      <c r="U3" s="1">
+        <f>P3+Q3+R3+S3+S7</f>
         <v>148</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V3" s="4">
         <v>20</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W3" s="4">
         <v>15</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X3" s="4">
         <v>30</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y3" s="4">
         <v>40</v>
       </c>
-      <c r="Y2" s="1">
-        <f>U2+V2+W2+X2</f>
+      <c r="Z3" s="1">
+        <f>V3+W3+X3+Y3</f>
         <v>105</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA3" s="4">
         <v>35</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB3" s="4">
         <v>18</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC3" s="4">
         <v>80</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD3" s="4">
         <v>15</v>
       </c>
-      <c r="AD2" s="1">
-        <f>Z2+AA2+AB2+AC2</f>
+      <c r="AE3" s="1">
+        <f>AA3+AB3+AC3+AD3</f>
         <v>148</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF3" s="1">
         <v>0</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG3" s="1">
         <v>0</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH3" s="1">
         <v>0</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI3" s="1">
         <v>0</v>
       </c>
-      <c r="AI2" s="1">
-        <f>AE2+AF2+AG2+AH2</f>
+      <c r="AJ3" s="1">
+        <f>AF3+AG3+AH3+AI3</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="1">
-        <f>T2+AD2</f>
+      <c r="AK3" s="1">
+        <f>U3+AE3</f>
         <v>296</v>
       </c>
     </row>
